--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_8_18.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_8_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>362445.1730451713</v>
+        <v>359713.5935833467</v>
       </c>
     </row>
     <row r="7">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>121.8549983858969</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -665,16 +665,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>188.5077344411908</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -704,22 +704,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>7.466467941383634</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>131.3172598179491</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>128.7835007017903</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -868,16 +868,16 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>161.1486436253827</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -905,13 +905,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>124.7272595845821</v>
+        <v>285.0120783583006</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -941,22 +941,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>162.3364906735235</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>9.461970681989468</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1139,16 +1139,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>167.4673761219643</v>
+        <v>61.26333917906086</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>412.9169039459368</v>
+        <v>12.9169039459368</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
         <v>118.4960408938903</v>
@@ -1184,16 +1184,16 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
         <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1297,10 +1297,10 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>9.579478589972823</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1345,19 +1345,19 @@
         <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V10" t="n">
-        <v>188.1844209179011</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1433,7 +1433,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>102.5859514748438</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986293</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>99.97427419833703</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1664,7 +1664,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>137.1782748299192</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>103.1686991936182</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>145.4210480229328</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -2002,22 +2002,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>63.841556412593</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2132,7 +2132,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2144,7 +2144,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2236,13 +2236,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819362</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>161.7400393421054</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>123.9815576456764</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2251,13 +2251,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2296,10 +2296,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365925</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2479,22 +2479,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>209.5844008505285</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2719,19 +2719,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>32.27552175740353</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2950,19 +2950,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3010,7 +3010,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>144.108843301494</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3187,19 +3187,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>57.24347904696366</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3427,22 +3427,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3481,7 +3481,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>214.6102731485174</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3661,22 +3661,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>101.6969570046971</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3715,7 +3715,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3727,7 +3727,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>73.44478684180565</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3743,7 +3743,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695412</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3834,7 +3834,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3901,7 +3901,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -3910,10 +3910,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3958,7 +3958,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>263.8862177697246</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4135,19 +4135,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>40.53421095546921</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4201,7 +4201,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>73.9504633112418</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>988.408785996259</v>
+        <v>1150.38930518072</v>
       </c>
       <c r="C2" t="n">
-        <v>988.408785996259</v>
+        <v>1150.38930518072</v>
       </c>
       <c r="D2" t="n">
-        <v>630.1430873895085</v>
+        <v>792.1236065739693</v>
       </c>
       <c r="E2" t="n">
-        <v>244.3548347912643</v>
+        <v>792.1236065739693</v>
       </c>
       <c r="F2" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
         <v>53.94298182036445</v>
@@ -4328,13 +4328,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2689.607204208744</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2689.607204208744</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2689.607204208744</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U2" t="n">
-        <v>2435.845418846835</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V2" t="n">
-        <v>2104.782531503265</v>
+        <v>2037.080252373063</v>
       </c>
       <c r="W2" t="n">
-        <v>1752.013876233151</v>
+        <v>2037.080252373063</v>
       </c>
       <c r="X2" t="n">
-        <v>1378.548117972071</v>
+        <v>1663.614494111983</v>
       </c>
       <c r="Y2" t="n">
-        <v>988.408785996259</v>
+        <v>1273.475162136171</v>
       </c>
     </row>
     <row r="3">
@@ -4398,10 +4398,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4425,13 +4425,13 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,7 +4462,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>184.027325963587</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4507,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>471.4038777286581</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V4" t="n">
-        <v>473.4444960005476</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W4" t="n">
-        <v>184.027325963587</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>184.027325963587</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>184.027325963587</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1074.547708327363</v>
+        <v>1194.683768698139</v>
       </c>
       <c r="C5" t="n">
-        <v>705.5851913869517</v>
+        <v>1194.683768698139</v>
       </c>
       <c r="D5" t="n">
-        <v>347.3194927802012</v>
+        <v>836.4180700913887</v>
       </c>
       <c r="E5" t="n">
-        <v>347.3194927802012</v>
+        <v>836.4180700913887</v>
       </c>
       <c r="F5" t="n">
-        <v>221.3323618866839</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4568,10 +4568,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2478.514423990285</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2224.752638628377</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V5" t="n">
-        <v>2224.752638628377</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W5" t="n">
-        <v>2224.752638628377</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="X5" t="n">
-        <v>1851.286880367297</v>
+        <v>1584.823100673951</v>
       </c>
       <c r="Y5" t="n">
-        <v>1461.147548391485</v>
+        <v>1194.683768698139</v>
       </c>
     </row>
     <row r="6">
@@ -4656,13 +4656,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4747,25 +4747,25 @@
         <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>352.6741383092202</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>63.50052796378816</v>
       </c>
       <c r="V7" t="n">
-        <v>564.1527310008552</v>
+        <v>63.50052796378816</v>
       </c>
       <c r="W7" t="n">
-        <v>274.7355609638946</v>
+        <v>63.50052796378816</v>
       </c>
       <c r="X7" t="n">
-        <v>274.7355609638946</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
         <v>53.94298182036445</v>
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1170.868604753196</v>
+        <v>977.7745109474504</v>
       </c>
       <c r="C8" t="n">
-        <v>1170.868604753196</v>
+        <v>977.7745109474504</v>
       </c>
       <c r="D8" t="n">
-        <v>1170.868604753196</v>
+        <v>977.7745109474504</v>
       </c>
       <c r="E8" t="n">
-        <v>1001.709638973434</v>
+        <v>915.8923501605202</v>
       </c>
       <c r="F8" t="n">
-        <v>590.7237341838262</v>
+        <v>504.9064453709126</v>
       </c>
       <c r="G8" t="n">
-        <v>173.6359524202537</v>
+        <v>491.8590676477442</v>
       </c>
       <c r="H8" t="n">
         <v>173.6359524202537</v>
@@ -4805,22 +4805,22 @@
         <v>242.5828808341008</v>
       </c>
       <c r="K8" t="n">
-        <v>646.0499938541462</v>
+        <v>325.1460354086931</v>
       </c>
       <c r="L8" t="n">
-        <v>1094.46325341956</v>
+        <v>464.4746912499463</v>
       </c>
       <c r="M8" t="n">
-        <v>1281.162666244967</v>
+        <v>1096.192502233258</v>
       </c>
       <c r="N8" t="n">
-        <v>1475.49687913695</v>
+        <v>1723.500170293104</v>
       </c>
       <c r="O8" t="n">
-        <v>2022.658083904027</v>
+        <v>2232.849924657333</v>
       </c>
       <c r="P8" t="n">
-        <v>2451.973130243322</v>
+        <v>2662.164970996627</v>
       </c>
       <c r="Q8" t="n">
         <v>2697.149091018222</v>
@@ -4832,22 +4832,22 @@
         <v>2540.93405351505</v>
       </c>
       <c r="T8" t="n">
-        <v>2540.93405351505</v>
+        <v>2326.134191782762</v>
       </c>
       <c r="U8" t="n">
-        <v>2287.242350260201</v>
+        <v>2072.442488527913</v>
       </c>
       <c r="V8" t="n">
-        <v>2287.242350260201</v>
+        <v>1741.379601184342</v>
       </c>
       <c r="W8" t="n">
-        <v>1934.473694990087</v>
+        <v>1741.379601184342</v>
       </c>
       <c r="X8" t="n">
-        <v>1561.007936729007</v>
+        <v>1367.913842923262</v>
       </c>
       <c r="Y8" t="n">
-        <v>1170.868604753196</v>
+        <v>977.7745109474504</v>
       </c>
     </row>
     <row r="9">
@@ -4887,19 +4887,19 @@
         <v>383.3713861261743</v>
       </c>
       <c r="L9" t="n">
-        <v>887.7329259922928</v>
+        <v>520.6009841418684</v>
       </c>
       <c r="M9" t="n">
-        <v>1067.230262346898</v>
+        <v>1161.146333608973</v>
       </c>
       <c r="N9" t="n">
-        <v>1734.774662373908</v>
+        <v>1828.690733635983</v>
       </c>
       <c r="O9" t="n">
-        <v>1981.606814720089</v>
+        <v>2378.126742388706</v>
       </c>
       <c r="P9" t="n">
-        <v>2405.574583200926</v>
+        <v>2486.816369916005</v>
       </c>
       <c r="Q9" t="n">
         <v>2636.288039261394</v>
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>348.7460229006679</v>
+        <v>63.619222820337</v>
       </c>
       <c r="C10" t="n">
-        <v>348.7460229006679</v>
+        <v>63.619222820337</v>
       </c>
       <c r="D10" t="n">
-        <v>348.7460229006679</v>
+        <v>63.619222820337</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
         <v>53.94298182036445</v>
@@ -4993,19 +4993,19 @@
         <v>828.2484665920741</v>
       </c>
       <c r="U10" t="n">
-        <v>828.2484665920741</v>
+        <v>539.096290169754</v>
       </c>
       <c r="V10" t="n">
-        <v>638.1631929376285</v>
+        <v>284.4118019638671</v>
       </c>
       <c r="W10" t="n">
-        <v>348.7460229006679</v>
+        <v>284.4118019638671</v>
       </c>
       <c r="X10" t="n">
-        <v>348.7460229006679</v>
+        <v>284.4118019638671</v>
       </c>
       <c r="Y10" t="n">
-        <v>348.7460229006679</v>
+        <v>63.619222820337</v>
       </c>
     </row>
     <row r="11">
@@ -5036,13 +5036,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332386</v>
@@ -5051,10 +5051,10 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5075,10 +5075,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
         <v>3094.515198591809</v>
@@ -5115,31 +5115,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O12" t="n">
-        <v>2297.690135143765</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P12" t="n">
-        <v>2297.690135143765</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2530.951795518647</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>658.9255961109956</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C13" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121632</v>
       </c>
       <c r="D13" t="n">
-        <v>489.9894131830887</v>
+        <v>194.8007783998275</v>
       </c>
       <c r="E13" t="n">
-        <v>489.9894131830887</v>
+        <v>194.8007783998275</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851783</v>
+        <v>194.8007783998275</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>194.8007783998275</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5273,25 +5273,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5352,28 +5352,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="L15" t="n">
-        <v>352.5519571452614</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718133</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>945.402603663004</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>776.4664207350971</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D16" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E16" t="n">
-        <v>489.9894131830887</v>
+        <v>240.7066105458838</v>
       </c>
       <c r="F16" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
@@ -5546,19 +5546,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N18" t="n">
-        <v>1670.092171589158</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>699.2677182139842</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>530.3315352860773</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D19" t="n">
-        <v>530.3315352860773</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E19" t="n">
-        <v>382.4184417036842</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="F19" t="n">
-        <v>235.5284942057738</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2382.47666296148</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2382.47666296148</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2162.875197984421</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1873.799971328619</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1619.115483122732</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1329.698313085771</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1101.708762187754</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>880.9161830442239</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5747,13 +5747,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5786,10 +5786,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
         <v>3094.515198591809</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>1815.886107649656</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2367.795837888943</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>951.3929232910554</v>
+        <v>513.8536007400696</v>
       </c>
       <c r="C22" t="n">
-        <v>788.0191461778176</v>
+        <v>513.8536007400696</v>
       </c>
       <c r="D22" t="n">
-        <v>637.9025067654818</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E22" t="n">
-        <v>489.9894131830887</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F22" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5935,25 +5935,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1871.240688199802</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1581.823518162841</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X22" t="n">
-        <v>1353.833967264824</v>
+        <v>916.2946447138395</v>
       </c>
       <c r="Y22" t="n">
-        <v>1133.041388121294</v>
+        <v>695.5020655703094</v>
       </c>
     </row>
     <row r="23">
@@ -5963,43 +5963,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.422291068009</v>
@@ -6020,19 +6020,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1670.092171589158</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2052.406834234631</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>2052.406834234631</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1797.722346028744</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1508.305175991783</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1280.315625093766</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6209,10 +6209,10 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362683</v>
@@ -6233,13 +6233,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6306,25 +6306,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637306</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M27" t="n">
-        <v>1186.520756890282</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N27" t="n">
-        <v>1814.118720444889</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O27" t="n">
-        <v>2366.028450684176</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>983.3556038098237</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>814.4194208819168</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>664.3027814695811</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1385.796647783593</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1165.004068640063</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6540,28 +6540,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>244.2098454714574</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N30" t="n">
-        <v>1896.176478190825</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>724.7519863413023</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>555.8158034133954</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D31" t="n">
-        <v>555.8158034133954</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>407.9027098310023</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
         <v>93.81666304797187</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1355.182581213089</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1127.193030315072</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>906.400451171542</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6686,34 +6686,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6777,25 +6777,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M33" t="n">
-        <v>1307.627092998424</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q33" t="n">
         <v>2516.421633107662</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>763.7541388327652</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>407.9027098310023</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
         <v>93.81666304797187</v>
@@ -6856,52 +6856,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1166.195182806535</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>945.4026036630049</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6923,40 +6923,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7014,28 +7014,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>577.3880777468471</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M36" t="n">
-        <v>1174.766565373399</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N36" t="n">
-        <v>1802.364528928006</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O36" t="n">
-        <v>2354.274259167293</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>801.6605733532803</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>632.7243904253734</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>632.7243904253734</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1721.508338262028</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1432.091168225067</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1204.10161732705</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>983.30903818352</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7163,34 +7163,34 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852255</v>
@@ -7254,25 +7254,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637306</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M39" t="n">
-        <v>1186.520756890282</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N39" t="n">
-        <v>1814.118720444889</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O39" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>847.6442739835331</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D40" t="n">
-        <v>697.5276345711974</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E40" t="n">
-        <v>549.6145409888043</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>2044.506784258106</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1789.822296052219</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1500.405126015258</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1272.415575117241</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7400,22 +7400,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014779</v>
@@ -7424,13 +7424,13 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7482,31 +7482,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>280.8495004245714</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>776.17510664033</v>
+        <v>671.2000270096659</v>
       </c>
       <c r="M42" t="n">
-        <v>1373.553594266882</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>719.5738700011939</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>550.637687073287</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>550.637687073287</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7594,25 +7594,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1350.004464872981</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1122.014913974964</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>901.2223348314336</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7649,19 +7649,19 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,16 +7722,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L45" t="n">
-        <v>579.1554649516142</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M45" t="n">
         <v>680.0291294438176</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.9487421954783</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>491.0125592675714</v>
+        <v>472.9099533103043</v>
       </c>
       <c r="D46" t="n">
-        <v>491.0125592675714</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E46" t="n">
-        <v>343.0994656851783</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F46" t="n">
-        <v>343.0994656851783</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G46" t="n">
         <v>175.9033664000583</v>
@@ -7849,7 +7849,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>841.597207025718</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8073,10 +8073,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415591</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8304,7 +8304,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8453,25 +8453,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>312.2066704284449</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
-        <v>380.8001812627454</v>
+        <v>342.6067970174433</v>
       </c>
       <c r="P8" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8535,22 +8535,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
         <v>473.6238973478236</v>
       </c>
       <c r="O9" t="n">
-        <v>88.2018582600214</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>128.0148769125372</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -9167,10 +9167,10 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="M17" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -9407,7 +9407,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -10364,7 +10364,7 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -10601,7 +10601,7 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -22544,7 +22544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>260.8788432775837</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -22562,7 +22562,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -22592,7 +22592,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>47.01193463342806</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -22711,7 +22711,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -22771,7 +22771,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>77.24602870709346</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>40.32043864788683</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>11.43719818829319</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>43.26526345295096</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.294712846225</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23890,22 +23890,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>44.73700564187209</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>2.533690297528686</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24127,10 +24127,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>5.506781756522429</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>24.63391537253599</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24139,13 +24139,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24184,7 +24184,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>63.36835372228749</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,16 +24409,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>7.821049476759754</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24607,19 +24607,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>114.1584408891656</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24838,19 +24838,19 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24898,7 +24898,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>142.414155035097</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25075,25 +25075,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>110.0033420516642</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>43.2652634529499</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25120,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25315,22 +25315,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>45.44677382459309</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,10 +25357,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25369,7 +25369,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>37.52737017531061</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25549,22 +25549,22 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>65.54986409393075</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25603,7 +25603,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>145.1398665102892</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25789,7 +25789,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25798,13 +25798,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,7 +25834,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25846,7 +25846,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>22.63678056686643</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26023,19 +26023,19 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>126.7126101431586</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>144.634190040853</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>335917.9865019028</v>
+        <v>335917.986501903</v>
       </c>
       <c r="C2" t="n">
-        <v>369468.7964389274</v>
+        <v>369468.7964389275</v>
       </c>
       <c r="D2" t="n">
-        <v>369468.7964389276</v>
+        <v>369468.7964389275</v>
       </c>
       <c r="E2" t="n">
+        <v>363215.9698605026</v>
+      </c>
+      <c r="F2" t="n">
         <v>363215.9698605027</v>
-      </c>
-      <c r="F2" t="n">
-        <v>363215.9698605026</v>
       </c>
       <c r="G2" t="n">
         <v>363215.9698605028</v>
       </c>
       <c r="H2" t="n">
-        <v>363215.9698605028</v>
+        <v>363215.9698605027</v>
       </c>
       <c r="I2" t="n">
-        <v>363215.9698605026</v>
+        <v>363215.9698605027</v>
       </c>
       <c r="J2" t="n">
         <v>363215.9698605026</v>
       </c>
       <c r="K2" t="n">
-        <v>363215.9698605025</v>
+        <v>363215.9698605026</v>
       </c>
       <c r="L2" t="n">
-        <v>363215.9698605025</v>
+        <v>363215.9698605028</v>
       </c>
       <c r="M2" t="n">
+        <v>363215.9698605027</v>
+      </c>
+      <c r="N2" t="n">
         <v>363215.9698605028</v>
       </c>
-      <c r="N2" t="n">
-        <v>363215.9698605026</v>
-      </c>
       <c r="O2" t="n">
-        <v>363215.9698605027</v>
+        <v>363215.9698605028</v>
       </c>
       <c r="P2" t="n">
         <v>363215.9698605026</v>
@@ -26372,7 +26372,7 @@
         <v>184756.2785481116</v>
       </c>
       <c r="E3" t="n">
-        <v>771052.6913808064</v>
+        <v>771052.6913808065</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26393,10 +26393,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.62584001373034e-10</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>124208.5107080583</v>
+        <v>124208.5107080585</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.513344614068046e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26415,28 +26415,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>167367.531750368</v>
+        <v>167367.5317503681</v>
       </c>
       <c r="C4" t="n">
         <v>209922.4154630333</v>
       </c>
       <c r="D4" t="n">
-        <v>176266.9759012793</v>
+        <v>176266.9759012794</v>
       </c>
       <c r="E4" t="n">
         <v>5677.536566682744</v>
       </c>
       <c r="F4" t="n">
+        <v>5677.536566682745</v>
+      </c>
+      <c r="G4" t="n">
+        <v>5677.536566682753</v>
+      </c>
+      <c r="H4" t="n">
         <v>5677.536566682744</v>
       </c>
-      <c r="G4" t="n">
-        <v>5677.536566682751</v>
-      </c>
-      <c r="H4" t="n">
-        <v>5677.536566682751</v>
-      </c>
       <c r="I4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682752</v>
       </c>
       <c r="J4" t="n">
         <v>5677.536566682744</v>
@@ -26445,19 +26445,19 @@
         <v>5677.536566682744</v>
       </c>
       <c r="L4" t="n">
+        <v>5677.536566682751</v>
+      </c>
+      <c r="M4" t="n">
         <v>5677.536566682745</v>
       </c>
-      <c r="M4" t="n">
-        <v>5677.536566682751</v>
-      </c>
       <c r="N4" t="n">
+        <v>5677.536566682757</v>
+      </c>
+      <c r="O4" t="n">
+        <v>5677.536566682767</v>
+      </c>
+      <c r="P4" t="n">
         <v>5677.536566682744</v>
-      </c>
-      <c r="O4" t="n">
-        <v>5677.536566682798</v>
-      </c>
-      <c r="P4" t="n">
-        <v>5677.536566682745</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-504276.5025264192</v>
+        <v>-504462.895914958</v>
       </c>
       <c r="C6" t="n">
-        <v>76687.30291248465</v>
+        <v>76687.30291248471</v>
       </c>
       <c r="D6" t="n">
-        <v>-79116.50318131014</v>
+        <v>-79116.50318131023</v>
       </c>
       <c r="E6" t="n">
-        <v>-514636.7879108936</v>
+        <v>-514671.5258363294</v>
       </c>
       <c r="F6" t="n">
-        <v>256415.9034699128</v>
+        <v>256381.1655444771</v>
       </c>
       <c r="G6" t="n">
-        <v>256415.9034699129</v>
+        <v>256381.1655444773</v>
       </c>
       <c r="H6" t="n">
-        <v>256415.9034699129</v>
+        <v>256381.1655444771</v>
       </c>
       <c r="I6" t="n">
-        <v>256415.9034699128</v>
+        <v>256381.1655444771</v>
       </c>
       <c r="J6" t="n">
-        <v>79992.68427731983</v>
+        <v>79957.94635188405</v>
       </c>
       <c r="K6" t="n">
-        <v>256415.9034699126</v>
+        <v>256381.1655444771</v>
       </c>
       <c r="L6" t="n">
-        <v>256415.9034699124</v>
+        <v>256381.1655444772</v>
       </c>
       <c r="M6" t="n">
-        <v>132207.3927618546</v>
+        <v>132172.6548364186</v>
       </c>
       <c r="N6" t="n">
-        <v>256415.9034699128</v>
+        <v>256381.1655444772</v>
       </c>
       <c r="O6" t="n">
-        <v>256415.903469913</v>
+        <v>256381.1655444772</v>
       </c>
       <c r="P6" t="n">
-        <v>256415.9034699125</v>
+        <v>256381.1655444771</v>
       </c>
     </row>
   </sheetData>
@@ -26966,7 +26966,7 @@
         <v>215.7324361209784</v>
       </c>
       <c r="E3" t="n">
-        <v>774.4994000036087</v>
+        <v>774.4994000036089</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26987,7 +26987,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -26999,7 +26999,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27385,10 +27385,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>218.3683113005206</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27430,16 +27430,16 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>196.4349986521858</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27537,13 +27537,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>38.46332039683753</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27579,7 +27579,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801578</v>
@@ -27588,22 +27588,22 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>125.133230616595</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27625,13 +27625,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>282.1487861571293</v>
+        <v>121.8639673834109</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27661,22 +27661,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>89.80115265030454</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>216.2476847070477</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27859,16 +27859,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>214.4629939502975</v>
+        <v>320.6670308932009</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27904,16 +27904,16 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28017,10 +28017,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>136.8544840565963</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.9207765545704</v>
@@ -28065,19 +28065,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>63.95322240592688</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28153,7 +28153,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -28327,7 +28327,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -28384,7 +28384,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -28500,7 +28500,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>-1.131184035330079e-12</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -28852,7 +28852,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -28864,7 +28864,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -28956,7 +28956,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1.131184035330079e-12</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -29019,7 +29019,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>-1.508245380440106e-12</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30463,7 +30463,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -30508,7 +30508,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>1.19380183899262e-12</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>671.9287955253226</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>168.0123247135882</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>438.5310889592611</v>
       </c>
       <c r="L15" t="n">
-        <v>399.9031616963283</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32309,7 +32309,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32318,16 +32318,16 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>263.7590256391499</v>
       </c>
       <c r="O18" t="n">
-        <v>370.9642309107746</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
@@ -32336,7 +32336,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32546,13 +32546,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32564,16 +32564,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>284.1014732918236</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,7 +32783,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32798,19 +32798,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>191.332301678856</v>
       </c>
       <c r="O24" t="n">
-        <v>370.9642309107746</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33026,7 +33026,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33035,19 +33035,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>151.9914336104081</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33260,10 +33260,10 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>289.7537444526272</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33272,19 +33272,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>359.7096985496635</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>379.4203056753698</v>
+        <v>632.5879274568745</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33734,13 +33734,13 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33749,16 +33749,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>279.0775374915855</v>
       </c>
       <c r="P36" t="n">
-        <v>334.7693860946154</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33974,7 +33974,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33983,19 +33983,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>485.1127032082914</v>
       </c>
       <c r="P39" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34120,37 +34120,37 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34159,10 +34159,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34205,40 +34205,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>326.7634969305202</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473071</v>
+        <v>231.5286848890172</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437242</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
         <v>0.1935814387275954</v>
@@ -34284,28 +34284,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
         <v>206.5643005515927</v>
@@ -34314,7 +34314,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34442,19 +34442,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>393.3904345522228</v>
       </c>
       <c r="M45" t="n">
-        <v>244.0266243181833</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34793,10 +34793,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>220.2054057751866</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35024,7 +35024,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35173,25 +35173,25 @@
         <v>190.5453525391276</v>
       </c>
       <c r="K8" t="n">
-        <v>407.5425384040863</v>
+        <v>83.39712583292157</v>
       </c>
       <c r="L8" t="n">
-        <v>452.9426864297107</v>
+        <v>140.7360160012659</v>
       </c>
       <c r="M8" t="n">
-        <v>188.5852654802098</v>
+        <v>638.0987989730422</v>
       </c>
       <c r="N8" t="n">
-        <v>196.2971847393761</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O8" t="n">
-        <v>552.6880856233105</v>
+        <v>514.4947013780085</v>
       </c>
       <c r="P8" t="n">
         <v>433.6515619588832</v>
       </c>
       <c r="Q8" t="n">
-        <v>247.6524856312129</v>
+        <v>35.33749497130819</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35255,22 +35255,22 @@
         <v>332.7559639452625</v>
       </c>
       <c r="L9" t="n">
-        <v>509.4561008748672</v>
+        <v>138.615755571408</v>
       </c>
       <c r="M9" t="n">
-        <v>181.3104407622271</v>
+        <v>647.0155045122269</v>
       </c>
       <c r="N9" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="O9" t="n">
-        <v>249.3254064102847</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P9" t="n">
-        <v>428.2502711927643</v>
+        <v>109.7875025528271</v>
       </c>
       <c r="Q9" t="n">
-        <v>233.0438950105733</v>
+        <v>150.9814841872614</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,7 +35483,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35492,25 +35492,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>529.7947616033042</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>22.33282074962425</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,31 +35720,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>300.6896499849021</v>
       </c>
       <c r="L15" t="n">
-        <v>261.3487819164541</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35887,10 +35887,10 @@
         <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35966,16 +35966,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>132.4173135558165</v>
       </c>
       <c r="O18" t="n">
-        <v>228.3679864663302</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
@@ -35984,7 +35984,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36127,7 +36127,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
@@ -36194,13 +36194,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36212,16 +36212,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>150.1270658774933</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36379,7 +36379,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36446,19 +36446,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="O24" t="n">
-        <v>228.3679864663302</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36674,7 +36674,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36683,19 +36683,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>20.64972152707474</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36908,10 +36908,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>151.9123054782682</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36920,19 +36920,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>228.3679864663302</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>237.2862717533515</v>
+        <v>490.4538935348562</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37321,7 +37321,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
         <v>371.5675334924728</v>
@@ -37382,13 +37382,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37397,16 +37397,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>136.4812930471411</v>
       </c>
       <c r="P36" t="n">
-        <v>200.7949786802852</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37622,7 +37622,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37631,19 +37631,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>342.516458763847</v>
       </c>
       <c r="P39" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37774,31 +37774,31 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37853,31 +37853,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>188.9220579561612</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674329</v>
+        <v>92.97430510914305</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992797</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
         <v>264.3325884096349</v>
@@ -37944,19 +37944,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38090,19 +38090,19 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>254.8360547723487</v>
       </c>
       <c r="M45" t="n">
-        <v>101.892590396165</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
